--- a/data/upper_tuo_soils.xlsx
+++ b/data/upper_tuo_soils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschap/Documents/Codes/VICMATLAB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA121F-77F0-774E-8C82-6788CD44A041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28318AE3-85D7-4545-A466-DEC6C6F62169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{83013BE4-7A96-134F-A455-8877308C5F39}"/>
+    <workbookView xWindow="42040" yWindow="9660" windowWidth="25600" windowHeight="20040" xr2:uid="{83013BE4-7A96-134F-A455-8877308C5F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>runcell</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Ds</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>expt</t>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F87907-3EB5-0B45-B6CA-F6DD23DE91D7}">
   <dimension ref="A1:BA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -503,139 +500,139 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR1" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>24</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>28</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA1" t="s">
         <v>29</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -652,7 +649,7 @@
         <v>-121.09375</v>
       </c>
       <c r="E2">
-        <v>0.1143</v>
+        <v>48.96</v>
       </c>
       <c r="F2">
         <v>0.01</v>
@@ -813,7 +810,7 @@
         <v>-120.90625</v>
       </c>
       <c r="E3">
-        <v>0.1143</v>
+        <v>127.38</v>
       </c>
       <c r="F3">
         <v>0.01</v>
@@ -974,7 +971,7 @@
         <v>-120.84375</v>
       </c>
       <c r="E4">
-        <v>0.1143</v>
+        <v>201.25</v>
       </c>
       <c r="F4">
         <v>0.01</v>
@@ -1135,7 +1132,7 @@
         <v>-120.78125</v>
       </c>
       <c r="E5">
-        <v>0.1143</v>
+        <v>281.87</v>
       </c>
       <c r="F5">
         <v>0.01</v>
@@ -1296,7 +1293,7 @@
         <v>-120.71875</v>
       </c>
       <c r="E6">
-        <v>0.1143</v>
+        <v>369.24</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -1457,7 +1454,7 @@
         <v>-120.65625</v>
       </c>
       <c r="E7">
-        <v>0.1143</v>
+        <v>442.66</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1618,7 +1615,7 @@
         <v>-120.59375</v>
       </c>
       <c r="E8">
-        <v>0.1143</v>
+        <v>502.12</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1779,7 +1776,7 @@
         <v>-120.53125</v>
       </c>
       <c r="E9">
-        <v>0.1143</v>
+        <v>586.38</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1940,7 +1937,7 @@
         <v>-120.46875</v>
       </c>
       <c r="E10">
-        <v>0.1143</v>
+        <v>695.45</v>
       </c>
       <c r="F10">
         <v>0.01</v>
@@ -2101,7 +2098,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E11">
-        <v>0.1143</v>
+        <v>807.07</v>
       </c>
       <c r="F11">
         <v>0.01</v>
@@ -2262,7 +2259,7 @@
         <v>-120.78125</v>
       </c>
       <c r="E12">
-        <v>0.1143</v>
+        <v>283.88</v>
       </c>
       <c r="F12">
         <v>0.01</v>
@@ -2423,7 +2420,7 @@
         <v>-120.71875</v>
       </c>
       <c r="E13">
-        <v>0.1143</v>
+        <v>384.07</v>
       </c>
       <c r="F13">
         <v>0.01</v>
@@ -2584,7 +2581,7 @@
         <v>-120.65625</v>
       </c>
       <c r="E14">
-        <v>0.1143</v>
+        <v>445.95</v>
       </c>
       <c r="F14">
         <v>0.01</v>
@@ -2745,7 +2742,7 @@
         <v>-120.59375</v>
       </c>
       <c r="E15">
-        <v>0.1143</v>
+        <v>469.51</v>
       </c>
       <c r="F15">
         <v>0.01</v>
@@ -2906,7 +2903,7 @@
         <v>-120.53125</v>
       </c>
       <c r="E16">
-        <v>0.1143</v>
+        <v>516.83000000000004</v>
       </c>
       <c r="F16">
         <v>0.01</v>
@@ -3067,7 +3064,7 @@
         <v>-120.46875</v>
       </c>
       <c r="E17">
-        <v>0.1143</v>
+        <v>587.91</v>
       </c>
       <c r="F17">
         <v>0.01</v>
@@ -3228,7 +3225,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E18">
-        <v>0.1143</v>
+        <v>696.27</v>
       </c>
       <c r="F18">
         <v>0.01</v>
@@ -3389,7 +3386,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E19">
-        <v>0.1143</v>
+        <v>841.9</v>
       </c>
       <c r="F19">
         <v>0.01</v>
@@ -3550,7 +3547,7 @@
         <v>-120.65625</v>
       </c>
       <c r="E20">
-        <v>0.1143</v>
+        <v>408.26</v>
       </c>
       <c r="F20">
         <v>0.01</v>
@@ -3711,7 +3708,7 @@
         <v>-120.59375</v>
       </c>
       <c r="E21">
-        <v>0.1143</v>
+        <v>413.93</v>
       </c>
       <c r="F21">
         <v>0.01</v>
@@ -3872,7 +3869,7 @@
         <v>-120.53125</v>
       </c>
       <c r="E22">
-        <v>0.1143</v>
+        <v>445.05</v>
       </c>
       <c r="F22">
         <v>0.01</v>
@@ -4033,7 +4030,7 @@
         <v>-120.46875</v>
       </c>
       <c r="E23">
-        <v>0.1143</v>
+        <v>501.62</v>
       </c>
       <c r="F23">
         <v>0.01</v>
@@ -4194,7 +4191,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E24">
-        <v>0.1143</v>
+        <v>603.55999999999995</v>
       </c>
       <c r="F24">
         <v>0.01</v>
@@ -4355,7 +4352,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E25">
-        <v>0.1143</v>
+        <v>750.86</v>
       </c>
       <c r="F25">
         <v>0.01</v>
@@ -4516,7 +4513,7 @@
         <v>-120.28125</v>
       </c>
       <c r="E26">
-        <v>0.1143</v>
+        <v>906.8</v>
       </c>
       <c r="F26">
         <v>0.01</v>
@@ -4677,7 +4674,7 @@
         <v>-120.21875</v>
       </c>
       <c r="E27">
-        <v>0.1143</v>
+        <v>1071.3800000000001</v>
       </c>
       <c r="F27">
         <v>0.01</v>
@@ -4838,7 +4835,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E28">
-        <v>0.11600000000000001</v>
+        <v>1825.54</v>
       </c>
       <c r="F28">
         <v>0.01</v>
@@ -4999,7 +4996,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E29">
-        <v>0.11609999999999999</v>
+        <v>1947.51</v>
       </c>
       <c r="F29">
         <v>0.01</v>
@@ -5160,7 +5157,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E30">
-        <v>0.11609999999999999</v>
+        <v>2098.31</v>
       </c>
       <c r="F30">
         <v>0.01</v>
@@ -5321,7 +5318,7 @@
         <v>-119.28125</v>
       </c>
       <c r="E31">
-        <v>0.11799999999999999</v>
+        <v>2971.81</v>
       </c>
       <c r="F31">
         <v>0.01</v>
@@ -5482,7 +5479,7 @@
         <v>-120.53125</v>
       </c>
       <c r="E32">
-        <v>0.1143</v>
+        <v>371.05</v>
       </c>
       <c r="F32">
         <v>0.01</v>
@@ -5643,7 +5640,7 @@
         <v>-120.46875</v>
       </c>
       <c r="E33">
-        <v>0.1143</v>
+        <v>436.6</v>
       </c>
       <c r="F33">
         <v>0.01</v>
@@ -5804,7 +5801,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E34">
-        <v>0.1143</v>
+        <v>528.96</v>
       </c>
       <c r="F34">
         <v>0.01</v>
@@ -5965,7 +5962,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E35">
-        <v>0.1143</v>
+        <v>648.13</v>
       </c>
       <c r="F35">
         <v>0.01</v>
@@ -6126,7 +6123,7 @@
         <v>-120.28125</v>
       </c>
       <c r="E36">
-        <v>0.1143</v>
+        <v>775.25</v>
       </c>
       <c r="F36">
         <v>0.01</v>
@@ -6287,7 +6284,7 @@
         <v>-120.21875</v>
       </c>
       <c r="E37">
-        <v>0.1143</v>
+        <v>910.32</v>
       </c>
       <c r="F37">
         <v>0.01</v>
@@ -6448,7 +6445,7 @@
         <v>-120.15625</v>
       </c>
       <c r="E38">
-        <v>0.1143</v>
+        <v>1069.3900000000001</v>
       </c>
       <c r="F38">
         <v>0.01</v>
@@ -6609,7 +6606,7 @@
         <v>-120.09375</v>
       </c>
       <c r="E39">
-        <v>0.1143</v>
+        <v>1252.46</v>
       </c>
       <c r="F39">
         <v>0.01</v>
@@ -6770,7 +6767,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E40">
-        <v>0.1143</v>
+        <v>1380.46</v>
       </c>
       <c r="F40">
         <v>0.01</v>
@@ -6931,7 +6928,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E41">
-        <v>0.11600000000000001</v>
+        <v>1453.39</v>
       </c>
       <c r="F41">
         <v>0.01</v>
@@ -7092,7 +7089,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E42">
-        <v>0.11609999999999999</v>
+        <v>1551.15</v>
       </c>
       <c r="F42">
         <v>0.01</v>
@@ -7253,7 +7250,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E43">
-        <v>0.11609999999999999</v>
+        <v>1673.74</v>
       </c>
       <c r="F43">
         <v>0.01</v>
@@ -7414,7 +7411,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E44">
-        <v>0.1162</v>
+        <v>1831.05</v>
       </c>
       <c r="F44">
         <v>0.01</v>
@@ -7575,7 +7572,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E45">
-        <v>0.1162</v>
+        <v>2023.07</v>
       </c>
       <c r="F45">
         <v>0.01</v>
@@ -7736,7 +7733,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E46">
-        <v>0.1163</v>
+        <v>2208.67</v>
       </c>
       <c r="F46">
         <v>0.01</v>
@@ -7897,7 +7894,7 @@
         <v>-119.34375</v>
       </c>
       <c r="E47">
-        <v>0.11799999999999999</v>
+        <v>3014.35</v>
       </c>
       <c r="F47">
         <v>0.01</v>
@@ -8058,7 +8055,7 @@
         <v>-119.28125</v>
       </c>
       <c r="E48">
-        <v>0.11799999999999999</v>
+        <v>3022.42</v>
       </c>
       <c r="F48">
         <v>0.01</v>
@@ -8219,7 +8216,7 @@
         <v>-119.21875</v>
       </c>
       <c r="E49">
-        <v>0.11799999999999999</v>
+        <v>2865.81</v>
       </c>
       <c r="F49">
         <v>0.01</v>
@@ -8380,7 +8377,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E50">
-        <v>0.1143</v>
+        <v>464.8</v>
       </c>
       <c r="F50">
         <v>0.01</v>
@@ -8541,7 +8538,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E51">
-        <v>0.1143</v>
+        <v>566.86</v>
       </c>
       <c r="F51">
         <v>0.01</v>
@@ -8702,7 +8699,7 @@
         <v>-120.28125</v>
       </c>
       <c r="E52">
-        <v>0.1143</v>
+        <v>686.53</v>
       </c>
       <c r="F52">
         <v>0.01</v>
@@ -8863,7 +8860,7 @@
         <v>-120.21875</v>
       </c>
       <c r="E53">
-        <v>0.1143</v>
+        <v>823.79</v>
       </c>
       <c r="F53">
         <v>0.01</v>
@@ -9024,7 +9021,7 @@
         <v>-120.15625</v>
       </c>
       <c r="E54">
-        <v>0.1143</v>
+        <v>960.31</v>
       </c>
       <c r="F54">
         <v>0.01</v>
@@ -9185,7 +9182,7 @@
         <v>-120.09375</v>
       </c>
       <c r="E55">
-        <v>0.1143</v>
+        <v>1096.07</v>
       </c>
       <c r="F55">
         <v>0.01</v>
@@ -9346,7 +9343,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E56">
-        <v>0.11600000000000001</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="F56">
         <v>0.01</v>
@@ -9507,7 +9504,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E57">
-        <v>0.11600000000000001</v>
+        <v>1295.6199999999999</v>
       </c>
       <c r="F57">
         <v>0.01</v>
@@ -9668,7 +9665,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E58">
-        <v>0.11609999999999999</v>
+        <v>1410.65</v>
       </c>
       <c r="F58">
         <v>0.01</v>
@@ -9829,7 +9826,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E59">
-        <v>0.1162</v>
+        <v>1552.93</v>
       </c>
       <c r="F59">
         <v>0.01</v>
@@ -9990,7 +9987,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E60">
-        <v>0.1162</v>
+        <v>1737.01</v>
       </c>
       <c r="F60">
         <v>0.01</v>
@@ -10151,7 +10148,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E61">
-        <v>0.1163</v>
+        <v>1962.9</v>
       </c>
       <c r="F61">
         <v>0.01</v>
@@ -10312,7 +10309,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E62">
-        <v>0.11799999999999999</v>
+        <v>2155.33</v>
       </c>
       <c r="F62">
         <v>0.01</v>
@@ -10473,7 +10470,7 @@
         <v>-119.59375</v>
       </c>
       <c r="E63">
-        <v>0.11799999999999999</v>
+        <v>2314.2800000000002</v>
       </c>
       <c r="F63">
         <v>0.01</v>
@@ -10634,7 +10631,7 @@
         <v>-119.53125</v>
       </c>
       <c r="E64">
-        <v>0.11799999999999999</v>
+        <v>2469.58</v>
       </c>
       <c r="F64">
         <v>0.01</v>
@@ -10795,7 +10792,7 @@
         <v>-119.46875</v>
       </c>
       <c r="E65">
-        <v>0.11799999999999999</v>
+        <v>2621.21</v>
       </c>
       <c r="F65">
         <v>0.01</v>
@@ -10956,7 +10953,7 @@
         <v>-119.40625</v>
       </c>
       <c r="E66">
-        <v>0.11799999999999999</v>
+        <v>2799.36</v>
       </c>
       <c r="F66">
         <v>0.01</v>
@@ -11117,7 +11114,7 @@
         <v>-119.34375</v>
       </c>
       <c r="E67">
-        <v>0.11799999999999999</v>
+        <v>3004.02</v>
       </c>
       <c r="F67">
         <v>0.01</v>
@@ -11278,7 +11275,7 @@
         <v>-119.28125</v>
       </c>
       <c r="E68">
-        <v>0.11799999999999999</v>
+        <v>3066.43</v>
       </c>
       <c r="F68">
         <v>0.01</v>
@@ -11439,7 +11436,7 @@
         <v>-120.40625</v>
       </c>
       <c r="E69">
-        <v>0.1143</v>
+        <v>411.07</v>
       </c>
       <c r="F69">
         <v>0.01</v>
@@ -11600,7 +11597,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E70">
-        <v>0.1143</v>
+        <v>507.07</v>
       </c>
       <c r="F70">
         <v>0.01</v>
@@ -11761,7 +11758,7 @@
         <v>-120.28125</v>
       </c>
       <c r="E71">
-        <v>0.1143</v>
+        <v>640.65</v>
       </c>
       <c r="F71">
         <v>0.01</v>
@@ -11922,7 +11919,7 @@
         <v>-120.21875</v>
       </c>
       <c r="E72">
-        <v>0.1143</v>
+        <v>811.8</v>
       </c>
       <c r="F72">
         <v>0.01</v>
@@ -12083,7 +12080,7 @@
         <v>-120.15625</v>
       </c>
       <c r="E73">
-        <v>0.1143</v>
+        <v>918.68</v>
       </c>
       <c r="F73">
         <v>0.01</v>
@@ -12244,7 +12241,7 @@
         <v>-120.09375</v>
       </c>
       <c r="E74">
-        <v>0.11600000000000001</v>
+        <v>961.26</v>
       </c>
       <c r="F74">
         <v>0.01</v>
@@ -12405,7 +12402,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E75">
-        <v>0.11600000000000001</v>
+        <v>1065.3</v>
       </c>
       <c r="F75">
         <v>0.01</v>
@@ -12566,7 +12563,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E76">
-        <v>0.11609999999999999</v>
+        <v>1230.78</v>
       </c>
       <c r="F76">
         <v>0.01</v>
@@ -12727,7 +12724,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E77">
-        <v>0.11609999999999999</v>
+        <v>1404.03</v>
       </c>
       <c r="F77">
         <v>0.01</v>
@@ -12888,7 +12885,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E78">
-        <v>0.1162</v>
+        <v>1585.07</v>
       </c>
       <c r="F78">
         <v>0.01</v>
@@ -13049,7 +13046,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E79">
-        <v>0.1162</v>
+        <v>1816.2</v>
       </c>
       <c r="F79">
         <v>0.01</v>
@@ -13210,7 +13207,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E80">
-        <v>0.1163</v>
+        <v>2097.4499999999998</v>
       </c>
       <c r="F80">
         <v>0.01</v>
@@ -13371,7 +13368,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E81">
-        <v>0.11799999999999999</v>
+        <v>2279.3000000000002</v>
       </c>
       <c r="F81">
         <v>0.01</v>
@@ -13532,7 +13529,7 @@
         <v>-119.59375</v>
       </c>
       <c r="E82">
-        <v>0.11799999999999999</v>
+        <v>2361.77</v>
       </c>
       <c r="F82">
         <v>0.01</v>
@@ -13693,7 +13690,7 @@
         <v>-119.53125</v>
       </c>
       <c r="E83">
-        <v>0.11799999999999999</v>
+        <v>2489.04</v>
       </c>
       <c r="F83">
         <v>0.01</v>
@@ -13854,7 +13851,7 @@
         <v>-119.46875</v>
       </c>
       <c r="E84">
-        <v>0.11799999999999999</v>
+        <v>2661.11</v>
       </c>
       <c r="F84">
         <v>0.01</v>
@@ -14015,7 +14012,7 @@
         <v>-119.40625</v>
       </c>
       <c r="E85">
-        <v>0.11799999999999999</v>
+        <v>2838.81</v>
       </c>
       <c r="F85">
         <v>0.01</v>
@@ -14176,7 +14173,7 @@
         <v>-119.34375</v>
       </c>
       <c r="E86">
-        <v>0.11799999999999999</v>
+        <v>3022.12</v>
       </c>
       <c r="F86">
         <v>0.01</v>
@@ -14337,7 +14334,7 @@
         <v>-120.34375</v>
       </c>
       <c r="E87">
-        <v>0.1143</v>
+        <v>439.2</v>
       </c>
       <c r="F87">
         <v>0.01</v>
@@ -14498,7 +14495,7 @@
         <v>-120.28125</v>
       </c>
       <c r="E88">
-        <v>0.1143</v>
+        <v>571.30999999999995</v>
       </c>
       <c r="F88">
         <v>0.01</v>
@@ -14659,7 +14656,7 @@
         <v>-120.21875</v>
       </c>
       <c r="E89">
-        <v>0.1143</v>
+        <v>743.28</v>
       </c>
       <c r="F89">
         <v>0.01</v>
@@ -14820,7 +14817,7 @@
         <v>-120.15625</v>
       </c>
       <c r="E90">
-        <v>0.1143</v>
+        <v>839.26</v>
       </c>
       <c r="F90">
         <v>0.01</v>
@@ -14981,7 +14978,7 @@
         <v>-120.09375</v>
       </c>
       <c r="E91">
-        <v>0.11600000000000001</v>
+        <v>859.25</v>
       </c>
       <c r="F91">
         <v>0.01</v>
@@ -15142,7 +15139,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E92">
-        <v>0.11609999999999999</v>
+        <v>954.88</v>
       </c>
       <c r="F92">
         <v>0.01</v>
@@ -15303,7 +15300,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E93">
-        <v>0.11609999999999999</v>
+        <v>1126.1400000000001</v>
       </c>
       <c r="F93">
         <v>0.01</v>
@@ -15464,7 +15461,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E94">
-        <v>0.1162</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="F94">
         <v>0.01</v>
@@ -15625,7 +15622,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E95">
-        <v>0.1162</v>
+        <v>1492.49</v>
       </c>
       <c r="F95">
         <v>0.01</v>
@@ -15786,7 +15783,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E96">
-        <v>0.1163</v>
+        <v>1736.67</v>
       </c>
       <c r="F96">
         <v>0.01</v>
@@ -15947,7 +15944,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E97">
-        <v>0.11799999999999999</v>
+        <v>2037.9</v>
       </c>
       <c r="F97">
         <v>0.01</v>
@@ -16108,7 +16105,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E98">
-        <v>0.11799999999999999</v>
+        <v>2225</v>
       </c>
       <c r="F98">
         <v>0.01</v>
@@ -16269,7 +16266,7 @@
         <v>-119.59375</v>
       </c>
       <c r="E99">
-        <v>0.11799999999999999</v>
+        <v>2297.9499999999998</v>
       </c>
       <c r="F99">
         <v>0.01</v>
@@ -16430,7 +16427,7 @@
         <v>-119.53125</v>
       </c>
       <c r="E100">
-        <v>0.11799999999999999</v>
+        <v>2438.6</v>
       </c>
       <c r="F100">
         <v>0.01</v>
@@ -16591,7 +16588,7 @@
         <v>-119.46875</v>
       </c>
       <c r="E101">
-        <v>0.11799999999999999</v>
+        <v>2646.94</v>
       </c>
       <c r="F101">
         <v>0.01</v>
@@ -16752,7 +16749,7 @@
         <v>-119.40625</v>
       </c>
       <c r="E102">
-        <v>0.11799999999999999</v>
+        <v>2841.87</v>
       </c>
       <c r="F102">
         <v>0.01</v>
@@ -16913,7 +16910,7 @@
         <v>-119.34375</v>
       </c>
       <c r="E103">
-        <v>0.11799999999999999</v>
+        <v>3023.37</v>
       </c>
       <c r="F103">
         <v>0.01</v>
@@ -17074,7 +17071,7 @@
         <v>-120.09375</v>
       </c>
       <c r="E104">
-        <v>0.11600000000000001</v>
+        <v>790.04</v>
       </c>
       <c r="F104">
         <v>0.01</v>
@@ -17235,7 +17232,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E105">
-        <v>0.11609999999999999</v>
+        <v>876.6</v>
       </c>
       <c r="F105">
         <v>0.01</v>
@@ -17396,7 +17393,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E106">
-        <v>0.1162</v>
+        <v>981.72</v>
       </c>
       <c r="F106">
         <v>0.01</v>
@@ -17557,7 +17554,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E107">
-        <v>0.1162</v>
+        <v>1114.5899999999999</v>
       </c>
       <c r="F107">
         <v>0.01</v>
@@ -17718,7 +17715,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E108">
-        <v>0.1163</v>
+        <v>1275.2</v>
       </c>
       <c r="F108">
         <v>0.01</v>
@@ -17879,7 +17876,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E109">
-        <v>0.1163</v>
+        <v>1498.42</v>
       </c>
       <c r="F109">
         <v>0.01</v>
@@ -18040,7 +18037,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E110">
-        <v>0.11799999999999999</v>
+        <v>1784.27</v>
       </c>
       <c r="F110">
         <v>0.01</v>
@@ -18201,7 +18198,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E111">
-        <v>0.11799999999999999</v>
+        <v>1992.41</v>
       </c>
       <c r="F111">
         <v>0.01</v>
@@ -18362,7 +18359,7 @@
         <v>-119.59375</v>
       </c>
       <c r="E112">
-        <v>0.11799999999999999</v>
+        <v>2122.84</v>
       </c>
       <c r="F112">
         <v>0.01</v>
@@ -18523,7 +18520,7 @@
         <v>-119.53125</v>
       </c>
       <c r="E113">
-        <v>0.11799999999999999</v>
+        <v>2318.27</v>
       </c>
       <c r="F113">
         <v>0.01</v>
@@ -18684,7 +18681,7 @@
         <v>-119.46875</v>
       </c>
       <c r="E114">
-        <v>0.11799999999999999</v>
+        <v>2578.71</v>
       </c>
       <c r="F114">
         <v>0.01</v>
@@ -18845,7 +18842,7 @@
         <v>-119.40625</v>
       </c>
       <c r="E115">
-        <v>0.11799999999999999</v>
+        <v>2808.54</v>
       </c>
       <c r="F115">
         <v>0.01</v>
@@ -19006,7 +19003,7 @@
         <v>-120.03125</v>
       </c>
       <c r="E116">
-        <v>0.11609999999999999</v>
+        <v>814.83</v>
       </c>
       <c r="F116">
         <v>0.01</v>
@@ -19167,7 +19164,7 @@
         <v>-119.96875</v>
       </c>
       <c r="E117">
-        <v>0.1162</v>
+        <v>893.43</v>
       </c>
       <c r="F117">
         <v>0.01</v>
@@ -19328,7 +19325,7 @@
         <v>-119.90625</v>
       </c>
       <c r="E118">
-        <v>0.1162</v>
+        <v>1004.62</v>
       </c>
       <c r="F118">
         <v>0.01</v>
@@ -19489,7 +19486,7 @@
         <v>-119.84375</v>
       </c>
       <c r="E119">
-        <v>0.1163</v>
+        <v>1148.4100000000001</v>
       </c>
       <c r="F119">
         <v>0.01</v>
@@ -19650,7 +19647,7 @@
         <v>-119.78125</v>
       </c>
       <c r="E120">
-        <v>0.1163</v>
+        <v>1350.22</v>
       </c>
       <c r="F120">
         <v>0.01</v>
@@ -19811,7 +19808,7 @@
         <v>-119.71875</v>
       </c>
       <c r="E121">
-        <v>0.11799999999999999</v>
+        <v>1610.04</v>
       </c>
       <c r="F121">
         <v>0.01</v>
@@ -19972,7 +19969,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E122">
-        <v>0.11799999999999999</v>
+        <v>1842.34</v>
       </c>
       <c r="F122">
         <v>0.01</v>
@@ -20133,7 +20130,7 @@
         <v>-119.59375</v>
       </c>
       <c r="E123">
-        <v>0.11799999999999999</v>
+        <v>2047.12</v>
       </c>
       <c r="F123">
         <v>0.01</v>
@@ -20294,7 +20291,7 @@
         <v>-119.65625</v>
       </c>
       <c r="E124">
-        <v>0.11799999999999999</v>
+        <v>1774.79</v>
       </c>
       <c r="F124">
         <v>0.01</v>
